--- a/data/brasil/serie-b/2022.xlsx
+++ b/data/brasil/serie-b/2022.xlsx
@@ -687,19 +687,9 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Wilton Sampaio (Bra)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Estádio Novelli Júnior (Itu)</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>18560</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>14322</v>
       </c>
@@ -757,16 +747,8 @@
       <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>P. C. Zanovelli (Bra)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Estádio Germano Krüger (Ponta Grossa)</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>10632</v>
       </c>
@@ -806,7 +788,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -825,19 +807,9 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Paulo Roberto (Bra)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>11788</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>4109</v>
       </c>
@@ -1105,10 +1077,22 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>R. Goulart (Bra)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>22856</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4011</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>04/11/2022</t>
@@ -1303,10 +1287,22 @@
       <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>M. Lima Barbosa (Bra)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>17728</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1019</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>28/10/2022</t>
@@ -1432,9 +1428,17 @@
         <v>2</v>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Londrina)</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>36056</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2650</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>28/10/2022</t>
@@ -1489,11 +1493,7 @@
       <c r="G16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Vieira C. (Bra)</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>Estádio Adelmar da Costa Carvalho (Recife)</t>
@@ -1697,10 +1697,22 @@
       <c r="G19" t="n">
         <v>4</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>M. Henrique (Bra)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Estádio Dr. Jorge Ismael de Biasi (Novo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>14096</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2765</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>27/10/2022</t>
@@ -1746,7 +1758,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1954,7 +1966,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1963,7 +1975,11 @@
       <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Mendonca J. (Bra)</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>Casa de Apostas Arena Fonte Nova (Salvador)</t>
@@ -2163,7 +2179,11 @@
       <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>São Januário (Rio de Janeiro)</t>
@@ -2503,9 +2523,19 @@
       <c r="G31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>5000</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -2561,9 +2591,19 @@
       <c r="G32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Luiz Flávio (Bra)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>60540</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -2689,9 +2729,19 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Castro A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Estádio Heriberto Hülse (Criciúma)</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>19300</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -2864,7 +2914,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2883,9 +2933,19 @@
       <c r="G37" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>11788</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -3009,10 +3069,14 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Vieira C. (Bra)</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Ponta Grossa)</t>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -3268,7 +3332,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3413,9 +3477,19 @@
       <c r="G45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Rodolpho (Bra)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Estádio Soares de Azevedo (Minas Gerais)</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>13971</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -3539,9 +3613,19 @@
       <c r="G47" t="n">
         <v>1</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>36056</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -3597,9 +3681,19 @@
       <c r="G48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Castro A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova (Salvador)</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>48902</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -3791,10 +3885,22 @@
       <c r="G51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Estádio Heriberto Hülse (Criciúma)</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>19300</v>
+      </c>
+      <c r="K51" t="n">
+        <v>9799</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>07/10/2022</t>
@@ -3849,9 +3955,19 @@
       <c r="G52" t="n">
         <v>1</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Marielson Alves Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>61927</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -3907,9 +4023,19 @@
       <c r="G53" t="n">
         <v>3</v>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Alisson (Bra)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>22856</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -3965,8 +4091,16 @@
       <c r="G54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>F. Fernandes de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Estádio Dr. Jorge Ismael de Biasi (Novo Horizonte)</t>
+        </is>
+      </c>
       <c r="J54" t="n">
         <v>14096</v>
       </c>
@@ -4229,7 +4363,11 @@
       <c r="G58" t="n">
         <v>3</v>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>Estádio Germano Krüger (Ponta Grossa)</t>
@@ -4274,7 +4412,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4752,7 +4890,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -4761,10 +4899,14 @@
       <c r="G66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Ponta Grossa)</t>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4961,9 +5103,19 @@
       <c r="G69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Mendonca J. (Bra)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Estádio Soares de Azevedo (Minas Gerais)</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>13971</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -5019,9 +5171,19 @@
       <c r="G70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Anderson Daronco (Bra)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Estádio Adelmar da Costa Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>26418</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -5485,9 +5647,19 @@
       <c r="G77" t="n">
         <v>3</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>de Andrade D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>22856</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -5524,7 +5696,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5817,9 +5989,19 @@
       <c r="G82" t="n">
         <v>2</v>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Vinícius Araújo (Bra)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>19105</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -5934,7 +6116,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6353,9 +6535,19 @@
       <c r="G90" t="n">
         <v>1</v>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>de Andrade D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>10632</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -6825,10 +7017,22 @@
       <c r="G97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>D. Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>61927</v>
+      </c>
+      <c r="K97" t="n">
+        <v>47692</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>08/09/2022</t>
@@ -6951,9 +7155,19 @@
       <c r="G99" t="n">
         <v>1</v>
       </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Moraes A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>40149</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -7058,7 +7272,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -7077,7 +7291,11 @@
       <c r="G101" t="n">
         <v>1</v>
       </c>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
@@ -7493,9 +7711,19 @@
       <c r="G107" t="n">
         <v>0</v>
       </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>5000</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -7624,7 +7852,9 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1099</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>03/09/2022</t>
@@ -7670,7 +7900,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -8021,9 +8251,19 @@
       <c r="G115" t="n">
         <v>0</v>
       </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Anderson Daronco (Bra)</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>19105</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -8079,7 +8319,11 @@
       <c r="G116" t="n">
         <v>0</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>R. J. Pereira de Lima (Bra)</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>Estádio Soares de Azevedo (Minas Gerais)</t>
@@ -8279,9 +8523,19 @@
       <c r="G119" t="n">
         <v>0</v>
       </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Alisson (Bra)</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>36056</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -8337,8 +8591,16 @@
       <c r="G120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>E. Alves Batista (Bra)</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
       <c r="J120" t="n">
         <v>40149</v>
       </c>
@@ -8388,7 +8650,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -8671,9 +8933,19 @@
       <c r="G125" t="n">
         <v>1</v>
       </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>J. Ferreira (Bra)</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>29130</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -8982,7 +9254,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -9001,9 +9273,19 @@
       <c r="G130" t="n">
         <v>0</v>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>11788</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -9335,8 +9617,16 @@
       <c r="G135" t="n">
         <v>0</v>
       </c>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>M. Henrique (Bra)</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
       <c r="J135" t="n">
         <v>17728</v>
       </c>
@@ -9386,7 +9676,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -9395,7 +9685,11 @@
       <c r="G136" t="n">
         <v>2</v>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Lima J. P. (Bra)</t>
+        </is>
+      </c>
       <c r="I136" t="inlineStr">
         <is>
           <t>Estádio Eládio de Barros Carvalho (Recife)</t>
@@ -9527,7 +9821,11 @@
       <c r="G138" t="n">
         <v>0</v>
       </c>
-      <c r="H138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Vieira C. (Bra)</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr">
         <is>
           <t>Estádio Soares de Azevedo (Minas Gerais)</t>
@@ -9863,8 +10161,16 @@
       <c r="G143" t="n">
         <v>0</v>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Vinícius Araújo (Bra)</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
       <c r="J143" t="n">
         <v>19105</v>
       </c>
@@ -10059,8 +10365,16 @@
       <c r="G146" t="n">
         <v>0</v>
       </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Mendonca J. (Bra)</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Arena Pernambuco (São Lourenço da Mata)</t>
+        </is>
+      </c>
       <c r="J146" t="n">
         <v>44248</v>
       </c>
@@ -10119,9 +10433,19 @@
       <c r="G147" t="n">
         <v>1</v>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Alisson (Bra)</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>10632</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -10177,9 +10501,19 @@
       <c r="G148" t="n">
         <v>1</v>
       </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>21880</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -10235,7 +10569,11 @@
       <c r="G149" t="n">
         <v>0</v>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Machado B. (Bra)</t>
+        </is>
+      </c>
       <c r="I149" t="inlineStr">
         <is>
           <t>Casa de Apostas Arena Fonte Nova (Salvador)</t>
@@ -10299,7 +10637,11 @@
       <c r="G150" t="n">
         <v>1</v>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Wagner do Nascimento (Bra)</t>
+        </is>
+      </c>
       <c r="I150" t="inlineStr">
         <is>
           <t>Augusto Bauer (Brusque)</t>
@@ -10344,7 +10686,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -10571,19 +10913,9 @@
       <c r="G154" t="n">
         <v>1</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Traci R. (Bra)</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
-        </is>
-      </c>
-      <c r="J154" t="n">
-        <v>22856</v>
-      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -10698,7 +11030,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -11115,7 +11447,11 @@
       <c r="G162" t="n">
         <v>0</v>
       </c>
-      <c r="H162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Castro A. (Bra)</t>
+        </is>
+      </c>
       <c r="I162" t="inlineStr">
         <is>
           <t>Mineirão (Belo Horizonte)</t>
@@ -11179,10 +11515,22 @@
       <c r="G163" t="n">
         <v>1</v>
       </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Estádio Dr. Jorge Ismael de Biasi (Novo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>14096</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1524</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>06/08/2022</t>
@@ -11237,10 +11585,22 @@
       <c r="G164" t="n">
         <v>0</v>
       </c>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>F. Fernandes de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova (Salvador)</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>48902</v>
+      </c>
+      <c r="K164" t="n">
+        <v>44885</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>06/08/2022</t>
@@ -11363,9 +11723,19 @@
       <c r="G166" t="n">
         <v>0</v>
       </c>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Vinícius Araújo (Bra)</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>10632</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -11402,7 +11772,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -11489,9 +11859,19 @@
       <c r="G168" t="n">
         <v>1</v>
       </c>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>de Andrade D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>19105</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -11547,9 +11927,19 @@
       <c r="G169" t="n">
         <v>1</v>
       </c>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>L. Fernandes Trigueiro Filho (Bra)</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>5000</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -11673,10 +12063,22 @@
       <c r="G171" t="n">
         <v>0</v>
       </c>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>D. Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>21880</v>
+      </c>
+      <c r="K171" t="n">
+        <v>20918</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>31/07/2022</t>
@@ -11862,7 +12264,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -12079,9 +12481,19 @@
       <c r="G177" t="n">
         <v>0</v>
       </c>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Estádio Antônio Guimarães de Almeida (Tombos)</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>3050</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -12137,7 +12549,11 @@
       <c r="G178" t="n">
         <v>0</v>
       </c>
-      <c r="H178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
       <c r="I178" t="inlineStr">
         <is>
           <t>Casa de Apostas Arena Fonte Nova (Salvador)</t>
@@ -12201,8 +12617,16 @@
       <c r="G179" t="n">
         <v>1</v>
       </c>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Castro A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Estádio Adelmar da Costa Carvalho (Recife)</t>
+        </is>
+      </c>
       <c r="J179" t="n">
         <v>26418</v>
       </c>
@@ -12329,9 +12753,19 @@
       <c r="G181" t="n">
         <v>0</v>
       </c>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Paulo Roberto (Bra)</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Arena Condá (Chapecó)</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>20089</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -12844,7 +13278,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -12863,9 +13297,19 @@
       <c r="G189" t="n">
         <v>0</v>
       </c>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>11788</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -13125,9 +13569,19 @@
       <c r="G193" t="n">
         <v>0</v>
       </c>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Arena Condá (Chapecó)</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>20089</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -13319,10 +13773,22 @@
       <c r="G196" t="n">
         <v>1</v>
       </c>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Rodolpho (Bra)</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>21880</v>
+      </c>
+      <c r="K196" t="n">
+        <v>20508</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>19/07/2022</t>
@@ -13447,9 +13913,19 @@
       <c r="G198" t="n">
         <v>1</v>
       </c>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Luiz Flávio (Bra)</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>5000</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -13632,7 +14108,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -13847,9 +14323,19 @@
       <c r="G204" t="n">
         <v>2</v>
       </c>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>29130</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -14158,7 +14644,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -14245,9 +14731,19 @@
       <c r="G210" t="n">
         <v>1</v>
       </c>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Vieira C. (Bra)</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Estádio Heriberto Hülse (Criciúma)</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>19300</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -14303,9 +14799,19 @@
       <c r="G211" t="n">
         <v>0</v>
       </c>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Wagner do Nascimento (Bra)</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>10632</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -14361,9 +14867,19 @@
       <c r="G212" t="n">
         <v>0</v>
       </c>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Paulo Roberto (Bra)</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>40149</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -14419,9 +14935,19 @@
       <c r="G213" t="n">
         <v>1</v>
       </c>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Estádio Heriberto Hülse (Criciúma)</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>19300</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -14681,9 +15207,19 @@
       <c r="G217" t="n">
         <v>0</v>
       </c>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Machado B. (Bra)</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>60540</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -14720,7 +15256,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -15079,9 +15615,19 @@
       <c r="G223" t="n">
         <v>1</v>
       </c>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Estádio Novelli Júnior (Itu)</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>18560</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -15205,9 +15751,19 @@
       <c r="G225" t="n">
         <v>0</v>
       </c>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Luiz Flávio (Bra)</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>78838</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -15263,11 +15819,7 @@
       <c r="G226" t="n">
         <v>0</v>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>Serafim D. (Bra)</t>
-        </is>
-      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
           <t>Moisés Lucarelli (Campinas)</t>
@@ -15399,9 +15951,19 @@
       <c r="G228" t="n">
         <v>1</v>
       </c>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>J. Ferreira (Bra)</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>22856</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -15457,9 +16019,19 @@
       <c r="G229" t="n">
         <v>2</v>
       </c>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Estádio Novelli Júnior (Itu)</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>18560</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
@@ -15515,9 +16087,19 @@
       <c r="G230" t="n">
         <v>0</v>
       </c>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>V. Gomes (Bra)</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>36056</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -15632,7 +16214,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -15641,7 +16223,11 @@
       <c r="G232" t="n">
         <v>0</v>
       </c>
-      <c r="H232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>E. Alves Batista (Bra)</t>
+        </is>
+      </c>
       <c r="I232" t="inlineStr">
         <is>
           <t>Mineirão (Belo Horizonte)</t>
@@ -15841,7 +16427,11 @@
       <c r="G235" t="n">
         <v>0</v>
       </c>
-      <c r="H235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>R. Abatti Abel (Bra)</t>
+        </is>
+      </c>
       <c r="I235" t="inlineStr">
         <is>
           <t>Estádio Dr. Jorge Ismael de Biasi (Novo Horizonte)</t>
@@ -15973,7 +16563,11 @@
       <c r="G237" t="n">
         <v>1</v>
       </c>
-      <c r="H237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
       <c r="I237" t="inlineStr">
         <is>
           <t>Mineirão (Belo Horizonte)</t>
@@ -16086,7 +16680,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -16105,9 +16699,19 @@
       <c r="G239" t="n">
         <v>1</v>
       </c>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Moraes A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>11788</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -16231,9 +16835,19 @@
       <c r="G241" t="n">
         <v>0</v>
       </c>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Marielson Alves Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>60540</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -16289,10 +16903,22 @@
       <c r="G242" t="n">
         <v>1</v>
       </c>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>M. Lima Barbosa (Bra)</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>10632</v>
+      </c>
+      <c r="K242" t="n">
+        <v>3223</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>27/06/2022</t>
@@ -16415,9 +17041,19 @@
       <c r="G244" t="n">
         <v>1</v>
       </c>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Willers Lorenzatto L. (Bra)</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Estádio Soares de Azevedo (Minas Gerais)</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>13971</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
@@ -16604,7 +17240,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -16681,10 +17317,22 @@
       <c r="G248" t="n">
         <v>1</v>
       </c>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Serafim D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>36056</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2961</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>24/06/2022</t>
@@ -16947,7 +17595,11 @@
       <c r="G252" t="n">
         <v>2</v>
       </c>
-      <c r="H252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>E. Alves Batista (Bra)</t>
+        </is>
+      </c>
       <c r="I252" t="inlineStr">
         <is>
           <t>Arena Condá (Chapecó)</t>
@@ -17011,10 +17663,22 @@
       <c r="G253" t="n">
         <v>0</v>
       </c>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Willers Lorenzatto L. (Bra)</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>29130</v>
+      </c>
+      <c r="K253" t="n">
+        <v>3524</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -17069,10 +17733,22 @@
       <c r="G254" t="n">
         <v>1</v>
       </c>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Wagner do Nascimento (Bra)</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>22856</v>
+      </c>
+      <c r="K254" t="n">
+        <v>6011</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>18/06/2022</t>
@@ -17337,10 +18013,22 @@
       <c r="G258" t="n">
         <v>1</v>
       </c>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>M. Lima Barbosa (Bra)</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>19105</v>
+      </c>
+      <c r="K258" t="n">
+        <v>4263</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -17395,7 +18083,11 @@
       <c r="G259" t="n">
         <v>1</v>
       </c>
-      <c r="H259" t="inlineStr"/>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>J. Ferreira (Bra)</t>
+        </is>
+      </c>
       <c r="I259" t="inlineStr">
         <is>
           <t>Estádio Heriberto Hülse (Criciúma)</t>
@@ -17442,7 +18134,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -18010,7 +18702,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -18089,10 +18781,22 @@
       <c r="G269" t="n">
         <v>2</v>
       </c>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>P. Vollkopf (Bra)</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>17728</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2846</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>11/06/2022</t>
@@ -18147,8 +18851,16 @@
       <c r="G270" t="n">
         <v>1</v>
       </c>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
       <c r="J270" t="n">
         <v>5000</v>
       </c>
@@ -18211,7 +18923,9 @@
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>20089</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
@@ -18335,10 +19049,22 @@
       <c r="G273" t="n">
         <v>0</v>
       </c>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Machado B. (Bra)</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova (Salvador)</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>48902</v>
+      </c>
+      <c r="K273" t="n">
+        <v>27343</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>08/06/2022</t>
@@ -18529,10 +19255,22 @@
       <c r="G276" t="n">
         <v>0</v>
       </c>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
+        <v>60540</v>
+      </c>
+      <c r="K276" t="n">
+        <v>11098</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>07/06/2022</t>
@@ -18655,10 +19393,22 @@
       <c r="G278" t="n">
         <v>2</v>
       </c>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Lima J. P. (Bra)</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Estádio Novelli Júnior (Itu)</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>18560</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1584</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>07/06/2022</t>
@@ -18832,7 +19582,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -18851,10 +19601,22 @@
       <c r="G281" t="n">
         <v>2</v>
       </c>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>P. C. Zanovelli (Bra)</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>11788</v>
+      </c>
+      <c r="K281" t="n">
+        <v>2318</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>07/06/2022</t>
@@ -19047,10 +19809,14 @@
       <c r="G284" t="n">
         <v>1</v>
       </c>
-      <c r="H284" t="inlineStr"/>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Marielson Alves Silva (Bra)</t>
+        </is>
+      </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Minas Gerais)</t>
+          <t>Estádio Soares de Azevedo (Minas Gerais)</t>
         </is>
       </c>
       <c r="J284" t="n">
@@ -19113,10 +19879,22 @@
       <c r="G285" t="n">
         <v>1</v>
       </c>
-      <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>M. Henrique (Bra)</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova (Salvador)</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>48902</v>
+      </c>
+      <c r="K285" t="n">
+        <v>32811</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>04/06/2022</t>
@@ -19241,10 +20019,22 @@
       <c r="G287" t="n">
         <v>2</v>
       </c>
-      <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>R. Abatti Abel (Bra)</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>10632</v>
+      </c>
+      <c r="K287" t="n">
+        <v>3910</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>03/06/2022</t>
@@ -19290,7 +20080,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F288" t="n">
@@ -19507,10 +20297,22 @@
       <c r="G291" t="n">
         <v>0</v>
       </c>
-      <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Wagner do Nascimento (Bra)</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>19105</v>
+      </c>
+      <c r="K291" t="n">
+        <v>11123</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>01/06/2022</t>
@@ -19546,7 +20348,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -19565,7 +20367,11 @@
       <c r="G292" t="n">
         <v>0</v>
       </c>
-      <c r="H292" t="inlineStr"/>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>D. Marques (Bra)</t>
+        </is>
+      </c>
       <c r="I292" t="inlineStr">
         <is>
           <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
@@ -19701,8 +20507,16 @@
       <c r="G294" t="n">
         <v>1</v>
       </c>
-      <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Alisson (Bra)</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
       <c r="J294" t="n">
         <v>19105</v>
       </c>
@@ -20113,10 +20927,22 @@
       <c r="G300" t="n">
         <v>0</v>
       </c>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Marielson Alves Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>17728</v>
+      </c>
+      <c r="K300" t="n">
+        <v>2234</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>24/05/2022</t>
@@ -20311,16 +21137,8 @@
       <c r="G303" t="n">
         <v>2</v>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>F. Fernandes de Lima (Bra)</t>
-        </is>
-      </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>Estádio Germano Krüger (Ponta Grossa)</t>
-        </is>
-      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
         <v>10632</v>
       </c>
@@ -20383,7 +21201,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Rodolpho (Bra)</t>
+          <t xml:space="preserve"> (Bra)</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -20451,10 +21269,14 @@
       <c r="G305" t="n">
         <v>0</v>
       </c>
-      <c r="H305" t="inlineStr"/>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>da Silva Goncalves F. (Bra)</t>
+        </is>
+      </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Brusque)</t>
+          <t>Augusto Bauer (Brusque)</t>
         </is>
       </c>
       <c r="J305" t="n">
@@ -20515,14 +21337,10 @@
       <c r="G306" t="n">
         <v>0</v>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>P. Alves (Bra)</t>
-        </is>
-      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Estádio Brinco de Ouro (Campinas)</t>
+          <t xml:space="preserve"> (Campinas)</t>
         </is>
       </c>
       <c r="J306" t="n">
@@ -20655,22 +21473,10 @@
       <c r="G308" t="n">
         <v>0</v>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>Wilton Sampaio (Bra)</t>
-        </is>
-      </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>Arena do Grêmio (Porto Alegre)</t>
-        </is>
-      </c>
-      <c r="J308" t="n">
-        <v>60540</v>
-      </c>
-      <c r="K308" t="n">
-        <v>9798</v>
-      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>19/05/2022</t>
@@ -20706,7 +21512,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -20935,10 +21741,22 @@
       <c r="G312" t="n">
         <v>1</v>
       </c>
-      <c r="H312" t="inlineStr"/>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>Estádio Novelli Júnior (Itu)</t>
+        </is>
+      </c>
+      <c r="J312" t="n">
+        <v>18560</v>
+      </c>
+      <c r="K312" t="n">
+        <v>5460</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>16/05/2022</t>
@@ -21194,7 +22012,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -21343,10 +22161,22 @@
       <c r="G318" t="n">
         <v>0</v>
       </c>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Lima J. P. (Bra)</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Estádio Heriberto Hülse (Criciúma)</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>19300</v>
+      </c>
+      <c r="K318" t="n">
+        <v>9847</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>14/05/2022</t>
@@ -21471,10 +22301,22 @@
       <c r="G320" t="n">
         <v>1</v>
       </c>
-      <c r="H320" t="inlineStr"/>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Castro A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Arena Condá (Chapecó)</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
+        <v>20089</v>
+      </c>
+      <c r="K320" t="n">
+        <v>3402</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>13/05/2022</t>
@@ -21529,10 +22371,22 @@
       <c r="G321" t="n">
         <v>1</v>
       </c>
-      <c r="H321" t="inlineStr"/>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Salmazio P. (Bra)</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J321" t="n">
+        <v>17728</v>
+      </c>
+      <c r="K321" t="n">
+        <v>2886</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>13/05/2022</t>
@@ -21657,9 +22511,19 @@
       <c r="G323" t="n">
         <v>0</v>
       </c>
-      <c r="H323" t="inlineStr"/>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J323" t="n">
+        <v>61927</v>
+      </c>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -21925,9 +22789,19 @@
       <c r="G327" t="n">
         <v>0</v>
       </c>
-      <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Marielson Alves Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>10632</v>
+      </c>
       <c r="K327" t="n">
         <v>3347</v>
       </c>
@@ -21985,7 +22859,11 @@
       <c r="G328" t="n">
         <v>0</v>
       </c>
-      <c r="H328" t="inlineStr"/>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>E. Alves Batista (Bra)</t>
+        </is>
+      </c>
       <c r="I328" t="inlineStr">
         <is>
           <t>Estádio Adelmar da Costa Carvalho (Recife)</t>
@@ -22032,7 +22910,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -22051,10 +22929,22 @@
       <c r="G329" t="n">
         <v>0</v>
       </c>
-      <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>P. Alves (Bra)</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J329" t="n">
+        <v>11788</v>
+      </c>
+      <c r="K329" t="n">
+        <v>4891</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>06/05/2022</t>
@@ -22179,9 +23069,19 @@
       <c r="G331" t="n">
         <v>1</v>
       </c>
-      <c r="H331" t="inlineStr"/>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>T. Scarascati (Bra)</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>19105</v>
+      </c>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
@@ -22307,10 +23207,22 @@
       <c r="G333" t="n">
         <v>1</v>
       </c>
-      <c r="H333" t="inlineStr"/>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Vieira C. (Bra)</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J333" t="n">
+        <v>22856</v>
+      </c>
+      <c r="K333" t="n">
+        <v>4294</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>03/05/2022</t>
@@ -22435,9 +23347,19 @@
       <c r="G335" t="n">
         <v>1</v>
       </c>
-      <c r="H335" t="inlineStr"/>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>André de Freitas (Bra)</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Estádio Soares de Azevedo (Minas Gerais)</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>13971</v>
+      </c>
       <c r="K335" t="n">
         <v>8357</v>
       </c>
@@ -22635,10 +23557,22 @@
       <c r="G338" t="n">
         <v>2</v>
       </c>
-      <c r="H338" t="inlineStr"/>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Luiz Flávio (Bra)</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Arena Condá (Chapecó)</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>20089</v>
+      </c>
+      <c r="K338" t="n">
+        <v>3270</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>30/04/2022</t>
@@ -22763,7 +23697,11 @@
       <c r="G340" t="n">
         <v>1</v>
       </c>
-      <c r="H340" t="inlineStr"/>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Vargas A. (Bra)</t>
+        </is>
+      </c>
       <c r="I340" t="inlineStr">
         <is>
           <t>Estádio Governador João Castelo (São Luís)</t>
@@ -22958,7 +23896,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F343" t="n">
@@ -22967,8 +23905,16 @@
       <c r="G343" t="n">
         <v>2</v>
       </c>
-      <c r="H343" t="inlineStr"/>
-      <c r="I343" t="inlineStr"/>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
       <c r="J343" t="n">
         <v>36056</v>
       </c>
@@ -23029,9 +23975,19 @@
       <c r="G344" t="n">
         <v>0</v>
       </c>
-      <c r="H344" t="inlineStr"/>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Rodolpho (Bra)</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>21880</v>
+      </c>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
@@ -23087,9 +24043,19 @@
       <c r="G345" t="n">
         <v>0</v>
       </c>
-      <c r="H345" t="inlineStr"/>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>de Almeida Andrade E. R. (Bra)</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>29130</v>
+      </c>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
@@ -23355,10 +24321,22 @@
       <c r="G349" t="n">
         <v>0</v>
       </c>
-      <c r="H349" t="inlineStr"/>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Schwengber D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>61927</v>
+      </c>
+      <c r="K349" t="n">
+        <v>14074</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>26/04/2022</t>
@@ -23462,7 +24440,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -23691,10 +24669,22 @@
       <c r="G354" t="n">
         <v>0</v>
       </c>
-      <c r="H354" t="inlineStr"/>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Dewson F. da Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>22856</v>
+      </c>
+      <c r="K354" t="n">
+        <v>2844</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>24/04/2022</t>
@@ -23740,7 +24730,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -23819,10 +24809,22 @@
       <c r="G356" t="n">
         <v>1</v>
       </c>
-      <c r="H356" t="inlineStr"/>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Rodolpho (Bra)</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Estádio Soares de Azevedo (Minas Gerais)</t>
+        </is>
+      </c>
+      <c r="J356" t="n">
+        <v>13971</v>
+      </c>
+      <c r="K356" t="n">
+        <v>3433</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>23/04/2022</t>
@@ -23879,8 +24881,12 @@
       </c>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>40149</v>
+      </c>
+      <c r="K357" t="n">
+        <v>1170</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>23/04/2022</t>
@@ -24005,9 +25011,19 @@
       <c r="G359" t="n">
         <v>1</v>
       </c>
-      <c r="H359" t="inlineStr"/>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Estádio Heriberto Hülse (Criciúma)</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>19300</v>
+      </c>
       <c r="K359" t="n">
         <v>4880</v>
       </c>
@@ -24065,8 +25081,16 @@
       <c r="G360" t="n">
         <v>0</v>
       </c>
-      <c r="H360" t="inlineStr"/>
-      <c r="I360" t="inlineStr"/>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Vinícius Araújo (Bra)</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Arena Condá (Chapecó)</t>
+        </is>
+      </c>
       <c r="J360" t="n">
         <v>20089</v>
       </c>
@@ -24127,8 +25151,16 @@
       <c r="G361" t="n">
         <v>1</v>
       </c>
-      <c r="H361" t="inlineStr"/>
-      <c r="I361" t="inlineStr"/>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>J. Ferreira (Bra)</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
       <c r="J361" t="n">
         <v>19105</v>
       </c>
@@ -24192,7 +25224,9 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>1201</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>21/04/2022</t>
@@ -24317,9 +25351,19 @@
       <c r="G364" t="n">
         <v>1</v>
       </c>
-      <c r="H364" t="inlineStr"/>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J364" t="n">
+        <v>19105</v>
+      </c>
       <c r="K364" t="n">
         <v>8999</v>
       </c>
@@ -24377,10 +25421,22 @@
       <c r="G365" t="n">
         <v>0</v>
       </c>
-      <c r="H365" t="inlineStr"/>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Alisson (Bra)</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J365" t="n">
+        <v>29130</v>
+      </c>
+      <c r="K365" t="n">
+        <v>3213</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>16/04/2022</t>
@@ -24904,7 +25960,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -25345,7 +26401,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Bra)</t>
+          <t>R. Abatti Abel (Bra)</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -25474,7 +26530,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F381" t="n">
